--- a/Dating_datatype.xlsx
+++ b/Dating_datatype.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>genderLooking</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>userId</t>
-  </si>
-  <si>
-    <t>isSystemProfile</t>
   </si>
   <si>
     <t>locked</t>
@@ -497,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -521,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -529,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -537,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -545,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -553,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -561,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -569,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -577,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -585,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -593,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -601,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -609,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -617,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -625,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -633,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -641,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -649,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -657,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -665,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -673,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -681,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -689,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -697,7 +694,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -705,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -713,7 +710,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -721,7 +718,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -729,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -737,7 +734,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -745,7 +742,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -753,7 +750,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -761,7 +758,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -769,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -777,7 +774,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -785,7 +782,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -793,7 +790,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -801,15 +798,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
